--- a/teaching/traditional_assets/database/data/denmark/denmark_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_software_entertainment.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.191</v>
+        <v>0.08470000000000001</v>
       </c>
       <c r="E2">
-        <v>0.299</v>
+        <v>0.113</v>
       </c>
       <c r="G2">
-        <v>0.333050505050505</v>
+        <v>0.2819709543568465</v>
       </c>
       <c r="H2">
-        <v>0.3191919191919192</v>
+        <v>0.2655601659751037</v>
       </c>
       <c r="I2">
-        <v>0.303030303030303</v>
+        <v>0.2572614107883817</v>
       </c>
       <c r="J2">
-        <v>0.2330659536541889</v>
+        <v>0.2024706217731462</v>
       </c>
       <c r="K2">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="L2">
-        <v>0.2121212121212121</v>
+        <v>0.2136929460580913</v>
       </c>
       <c r="M2">
-        <v>9.66</v>
+        <v>10.1</v>
       </c>
       <c r="N2">
-        <v>0.0736842105263158</v>
+        <v>0.05507088331515812</v>
       </c>
       <c r="O2">
-        <v>0.92</v>
+        <v>0.9805825242718446</v>
       </c>
       <c r="P2">
-        <v>9.66</v>
+        <v>10.1</v>
       </c>
       <c r="Q2">
-        <v>0.0736842105263158</v>
+        <v>0.05507088331515812</v>
       </c>
       <c r="R2">
-        <v>0.92</v>
+        <v>0.9805825242718446</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.08037443159381574</v>
+        <v>0.06263980392067162</v>
       </c>
       <c r="AB2">
-        <v>0.08037443159381574</v>
+        <v>0.06263980392067162</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.059</v>
+        <v>-0.011</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-254.2372881355932</v>
+        <v>-1127.272727272727</v>
       </c>
     </row>
     <row r="3">
@@ -701,46 +701,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.191</v>
+        <v>0.08470000000000001</v>
       </c>
       <c r="E3">
-        <v>0.299</v>
+        <v>0.113</v>
       </c>
       <c r="G3">
-        <v>0.333050505050505</v>
+        <v>0.2819709543568465</v>
       </c>
       <c r="H3">
-        <v>0.3191919191919192</v>
+        <v>0.2655601659751037</v>
       </c>
       <c r="I3">
-        <v>0.303030303030303</v>
+        <v>0.2572614107883817</v>
       </c>
       <c r="J3">
-        <v>0.2330659536541889</v>
+        <v>0.2024706217731462</v>
       </c>
       <c r="K3">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="L3">
-        <v>0.2121212121212121</v>
+        <v>0.2136929460580913</v>
       </c>
       <c r="M3">
-        <v>9.66</v>
+        <v>10.1</v>
       </c>
       <c r="N3">
-        <v>0.0736842105263158</v>
+        <v>0.05507088331515812</v>
       </c>
       <c r="O3">
-        <v>0.92</v>
+        <v>0.9805825242718446</v>
       </c>
       <c r="P3">
-        <v>9.66</v>
+        <v>10.1</v>
       </c>
       <c r="Q3">
-        <v>0.0736842105263158</v>
+        <v>0.05507088331515812</v>
       </c>
       <c r="R3">
-        <v>0.92</v>
+        <v>0.9805825242718446</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.08037443159381574</v>
+        <v>0.06263980392067162</v>
       </c>
       <c r="AB3">
-        <v>0.08037443159381574</v>
+        <v>0.06263980392067162</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.059</v>
+        <v>-0.011</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-254.2372881355932</v>
+        <v>-1127.272727272727</v>
       </c>
     </row>
   </sheetData>
